--- a/进度.xlsx
+++ b/进度.xlsx
@@ -440,27 +440,11 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -768,7 +752,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -907,7 +891,7 @@
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1160,7 +1144,7 @@
     </row>
   </sheetData>
   <sortState ref="A1:D45">
-    <sortCondition sortBy="cellColor" ref="B1:B45" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="B1:B45" dxfId="0"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/进度.xlsx
+++ b/进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>89Y</t>
   </si>
@@ -293,6 +293,10 @@
   </si>
   <si>
     <t>CD183/CXCR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据量少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +374,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -434,6 +444,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -899,8 +912,11 @@
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">

--- a/进度.xlsx
+++ b/进度.xlsx
@@ -765,7 +765,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -923,7 +923,7 @@
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
     </row>

--- a/进度.xlsx
+++ b/进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>89Y</t>
   </si>
@@ -297,6 +297,10 @@
   </si>
   <si>
     <t>数据量少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳性数据偏少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,7 +769,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -919,7 +923,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -927,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -935,23 +939,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -959,7 +966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -967,7 +974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -975,7 +982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -983,7 +990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -991,7 +998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -999,7 +1006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
@@ -1007,7 +1014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
@@ -1015,7 +1022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -1023,7 +1030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
@@ -1031,7 +1038,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>71</v>
       </c>
@@ -1039,7 +1046,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>73</v>
       </c>

--- a/进度.xlsx
+++ b/进度.xlsx
@@ -769,7 +769,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -970,7 +970,7 @@
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
     </row>
